--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -276,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -821,9 +821,156 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,121 +980,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,75 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,107 +1362,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="42">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="33">
         <v>90</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="40">
         <v>40660</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="str">
+      <c r="B4" s="7" t="str">
         <f>B3</f>
         <v xml:space="preserve">Visita a la Planta Álavez Condarco y Análisis de lo relevado. </v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="43">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="34">
         <v>90</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="41">
         <f>G3</f>
         <v>40660</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="19" t="str">
         <f>B3</f>
         <v xml:space="preserve">Visita a la Planta Álavez Condarco y Análisis de lo relevado. </v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="44">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="35">
         <v>90</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="42">
         <f>G4</f>
         <v>40660</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="11" t="str">
         <f>B3</f>
         <v xml:space="preserve">Visita a la Planta Álavez Condarco y Análisis de lo relevado. </v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="45">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="36">
         <v>90</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="43">
         <f>G5</f>
         <v>40660</v>
       </c>
@@ -1472,64 +1472,64 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="32">
         <v>40624</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="32">
         <v>40652</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1572,170 +1572,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="42">
+      <c r="E3" s="22"/>
+      <c r="F3" s="33">
         <v>90</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="40">
         <v>40704</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13" t="str">
+      <c r="D4" s="8" t="str">
         <f>D3</f>
         <v xml:space="preserve">Adquisición de las herramientas de desarrollo e instalación (RAD Studio, ModbusSlave) </v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="43">
+      <c r="E4" s="23"/>
+      <c r="F4" s="34">
         <v>80</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="41">
         <v>40683</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25" t="str">
+      <c r="D5" s="20" t="str">
         <f>D4</f>
         <v xml:space="preserve">Adquisición de las herramientas de desarrollo e instalación (RAD Studio, ModbusSlave) </v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="44">
+      <c r="E5" s="24"/>
+      <c r="F5" s="35">
         <v>60</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="42">
         <v>40754</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="12" t="str">
         <f>D5</f>
         <v xml:space="preserve">Adquisición de las herramientas de desarrollo e instalación (RAD Studio, ModbusSlave) </v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="45">
+      <c r="E6" s="25"/>
+      <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1778,157 +1778,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="42">
+      <c r="E3" s="17"/>
+      <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="43">
+      <c r="E4" s="9"/>
+      <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="44">
+      <c r="E5" s="21"/>
+      <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="45">
+      <c r="E6" s="13"/>
+      <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1971,112 +1971,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="42">
+      <c r="E3" s="17"/>
+      <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="34">
         <v>90</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="41">
         <v>40715</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="44">
+      <c r="E5" s="21"/>
+      <c r="F5" s="35">
         <v>70</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="42">
         <v>40749</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="45">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="36">
         <v>80</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="43">
         <v>40729</v>
       </c>
     </row>
@@ -2085,57 +2085,57 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="30"/>
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="32">
         <v>40708</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2178,151 +2178,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="33">
         <v>90</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="40">
         <v>40727</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="43">
+      <c r="E4" s="9"/>
+      <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="44">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="45">
+      <c r="E6" s="13"/>
+      <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2365,153 +2365,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="42">
+      <c r="E3" s="17"/>
+      <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="43">
+      <c r="E4" s="9"/>
+      <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2543,7 +2543,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,139 +2554,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="33">
+        <v>90</v>
+      </c>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="35">
+        <v>100</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId5"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId6"/>
     <sheet name="Sprint6" sheetId="9" r:id="rId7"/>
+    <sheet name="Sprint7" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>Adrian</t>
   </si>
@@ -269,6 +270,36 @@
   </si>
   <si>
     <t>Refinamiento y feedback en base a la prueba alfa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint #7 ( 17/08 al </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??????</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ABM de Usuarios, Login, Alertas, Permisos</t>
   </si>
 </sst>
 </file>
@@ -278,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +321,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -964,6 +1003,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,22 +1410,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1390,8 +1438,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1488,12 +1536,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1502,34 +1550,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1572,22 +1620,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1600,8 +1648,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1700,42 +1748,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1778,22 +1826,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1806,8 +1854,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1893,42 +1941,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1971,22 +2019,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1999,8 +2047,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2100,42 +2148,42 @@
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2178,22 +2226,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2206,8 +2254,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2287,42 +2335,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2354,7 +2402,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,22 +2413,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2393,8 +2441,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2478,40 +2526,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2542,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2554,22 +2602,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2582,8 +2630,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2657,40 +2705,203 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D9:G14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Adrian</t>
   </si>
@@ -272,34 +272,16 @@
     <t>Refinamiento y feedback en base a la prueba alfa.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sprint #7 ( 17/08 al </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>??????</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>ABM de Usuarios, Login, Alertas, Permisos</t>
+  </si>
+  <si>
+    <t>Finalizar Monitoreo Web, Comienzo con el Módulo de Estadísticas</t>
+  </si>
+  <si>
+    <t>Pruebas de Integración del sistema, cambios en BD</t>
+  </si>
+  <si>
+    <t>Sprint #7 ( 17/08 al 16/09)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,14 +303,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2402,7 +2376,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2636,9 @@
       <c r="E4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="34">
+        <v>80</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2692,7 +2668,9 @@
       <c r="E6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>90</v>
+      </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2769,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2761,7 @@
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -2819,7 +2797,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="33"/>
@@ -2853,8 +2831,12 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F6" s="36"/>
       <c r="G6" s="13"/>
     </row>

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Sprint5" sheetId="8" r:id="rId6"/>
     <sheet name="Sprint6" sheetId="9" r:id="rId7"/>
     <sheet name="Sprint7" sheetId="11" r:id="rId8"/>
+    <sheet name="Sprint8" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Adrian</t>
   </si>
@@ -282,6 +283,24 @@
   </si>
   <si>
     <t>Sprint #7 ( 17/08 al 16/09)</t>
+  </si>
+  <si>
+    <t>Último refinamiento de requerimientos del módulo de control y arquitectura del sistema</t>
+  </si>
+  <si>
+    <t>Prueba de integridad (inicios)</t>
+  </si>
+  <si>
+    <t>Diseño de Modelo usando Hydraulics Toolbox</t>
+  </si>
+  <si>
+    <t>Prueba de (1)</t>
+  </si>
+  <si>
+    <t>(1) Implementación beta</t>
+  </si>
+  <si>
+    <t>Sprint #7 ( 17/09 al )</t>
   </si>
 </sst>
 </file>
@@ -826,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,18 +979,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,6 +994,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,6 +1082,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1375,7 +1436,7 @@
       <selection activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -1384,22 +1445,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1412,8 +1473,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1510,12 +1571,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1524,34 +1585,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1586,7 +1647,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -1594,22 +1655,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1622,8 +1683,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1722,42 +1783,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1789,168 +1850,178 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="2" max="5" width="24" style="89" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="83" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="45" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="44" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1982,79 +2053,83 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="2" max="5" width="24" style="89" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="83" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="45" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="34">
@@ -2068,16 +2143,18 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="35">
         <v>70</v>
       </c>
@@ -2089,12 +2166,18 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="36">
         <v>80</v>
       </c>
@@ -2107,57 +2190,57 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="D8" s="37" t="s">
+      <c r="B8" s="93"/>
+      <c r="D8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="94">
         <v>40708</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2189,58 +2272,62 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="2" max="5" width="24" style="89" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="83" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="33">
@@ -2254,46 +2341,60 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="45" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="44" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="36">
         <v>100</v>
       </c>
@@ -2301,50 +2402,50 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2376,164 +2477,176 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="2" max="5" width="24" style="89" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="83" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="45" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="34">
         <v>100</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="46" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="44" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2564,159 +2677,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="2" max="5" width="24" style="89" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="83" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="33">
         <v>90</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="34">
         <v>80</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="35">
         <v>100</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="44" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="36">
         <v>90</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2747,11 +2878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -2759,69 +2890,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="33">
+        <v>95</v>
+      </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="34"/>
+      <c r="B4" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="34">
+        <v>70</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="35"/>
       <c r="G5" s="21"/>
     </row>
@@ -2829,15 +2986,21 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>55</v>
+      </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2850,40 +3013,201 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D9:G14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53"/>
+      <c r="B1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -845,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1003,6 +1003,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,50 +1129,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,7 +1147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1436,7 +1439,7 @@
       <selection activeCell="G6" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -1445,22 +1448,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1473,8 +1476,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1571,12 +1574,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1585,34 +1588,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1647,7 +1650,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -1655,22 +1658,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1683,8 +1686,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1783,42 +1786,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1853,30 +1856,30 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="89"/>
-    <col min="2" max="5" width="24" style="89" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="89"/>
+    <col min="1" max="1" width="11.42578125" style="62"/>
+    <col min="2" max="5" width="24" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -1889,41 +1892,41 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="58" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -1938,13 +1941,13 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="60" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -1959,13 +1962,13 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="61" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -1978,50 +1981,50 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2056,30 +2059,30 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="89"/>
-    <col min="2" max="5" width="24" style="89" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="89"/>
+    <col min="1" max="1" width="11.42578125" style="62"/>
+    <col min="2" max="5" width="24" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2092,41 +2095,41 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="58" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2143,13 +2146,13 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -2166,13 +2169,13 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="61" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -2190,57 +2193,57 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="D8" s="90" t="s">
+      <c r="B8" s="66"/>
+      <c r="D8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
+      <c r="A9" s="67">
         <v>40708</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2275,30 +2278,30 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="89"/>
-    <col min="2" max="5" width="24" style="89" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="89"/>
+    <col min="1" max="1" width="11.42578125" style="62"/>
+    <col min="2" max="5" width="24" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2311,23 +2314,23 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="56" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="33">
@@ -2341,13 +2344,13 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2362,13 +2365,13 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="60" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -2383,13 +2386,13 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="61" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -2402,50 +2405,50 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2480,30 +2483,30 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="89"/>
-    <col min="2" max="5" width="24" style="89" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="89"/>
+    <col min="1" max="1" width="11.42578125" style="62"/>
+    <col min="2" max="5" width="24" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2516,41 +2519,41 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="33">
         <v>100</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="58" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2565,13 +2568,13 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -2586,13 +2589,13 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="61" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -2605,48 +2608,48 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2678,33 +2681,33 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="89"/>
-    <col min="2" max="5" width="24" style="89" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="89"/>
+    <col min="1" max="1" width="11.42578125" style="62"/>
+    <col min="2" max="5" width="24" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2717,41 +2720,43 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="33">
         <v>90</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="40">
+        <v>40775</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2760,19 +2765,21 @@
       <c r="F4" s="34">
         <v>80</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="41">
+        <v>40796</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="87" t="s">
+      <c r="B5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -2787,13 +2794,13 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -2802,52 +2809,54 @@
       <c r="F6" s="36">
         <v>90</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="43">
+        <v>40780</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2879,10 +2888,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -2890,22 +2899,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
@@ -2918,41 +2927,43 @@
       <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="56" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="33">
         <v>95</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="95">
+        <v>40804</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="58" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2967,13 +2978,13 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="87" t="s">
+      <c r="B5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="46" t="s">
@@ -2986,13 +2997,13 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="44" t="s">
@@ -3013,40 +3024,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3078,10 +3089,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="5" width="24" style="1" customWidth="1"/>
@@ -3089,22 +3100,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -3117,17 +3128,17 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="33"/>
       <c r="G3" s="17"/>
     </row>
@@ -3135,9 +3146,9 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="45"/>
       <c r="F4" s="34"/>
       <c r="G4" s="9"/>
@@ -3146,9 +3157,9 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="46"/>
       <c r="F5" s="35"/>
       <c r="G5" s="21"/>
@@ -3157,9 +3168,9 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="44"/>
       <c r="F6" s="36"/>
       <c r="G6" s="13"/>
@@ -3174,40 +3185,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18915" windowHeight="8445" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
   <si>
     <t>Adrian</t>
   </si>
@@ -300,7 +300,34 @@
     <t>(1) Implementación beta</t>
   </si>
   <si>
-    <t>Sprint #7 ( 17/09 al )</t>
+    <t>Leandro estaba complicado por asuntos personales</t>
+  </si>
+  <si>
+    <t>Sprint #7 ( 17/09 al 16/10)</t>
+  </si>
+  <si>
+    <t>Prueba Integral del Sistema</t>
+  </si>
+  <si>
+    <t>Implementación definitiva</t>
+  </si>
+  <si>
+    <t>Prueba Delphi-Matlab</t>
+  </si>
+  <si>
+    <t>Agregado de filtros a reportes</t>
+  </si>
+  <si>
+    <t>Finalizar módulo de estadísticas web</t>
+  </si>
+  <si>
+    <t>Prueba del módulo de estadísticas</t>
+  </si>
+  <si>
+    <t>Documentación de Pruebas</t>
+  </si>
+  <si>
+    <t>Poster; PPT Congreso; Manual de Usuario HYDRO</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1075,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,9 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,22 +1475,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1476,8 +1503,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1574,12 +1601,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1588,34 +1615,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1658,22 +1685,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1686,8 +1713,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1786,42 +1813,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1864,22 +1891,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -1892,8 +1919,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1989,42 +2016,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2067,22 +2094,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2095,8 +2122,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2208,42 +2235,42 @@
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2275,7 +2302,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,22 +2313,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2314,8 +2341,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2413,42 +2440,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2479,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2491,22 +2518,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2519,8 +2546,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2616,40 +2643,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2680,7 +2707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2692,22 +2719,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2720,8 +2747,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2823,40 +2850,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2887,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,22 +2926,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
@@ -2927,8 +2954,8 @@
       <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2949,7 +2976,7 @@
       <c r="F3" s="33">
         <v>95</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="68">
         <v>40804</v>
       </c>
     </row>
@@ -3024,40 +3051,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="D9" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3088,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,22 +3129,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -3128,8 +3157,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3137,8 +3166,12 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="D3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>94</v>
+      </c>
       <c r="F3" s="33"/>
       <c r="G3" s="17"/>
     </row>
@@ -3148,8 +3181,12 @@
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="F4" s="34"/>
       <c r="G4" s="9"/>
     </row>
@@ -3158,9 +3195,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="C5" s="60" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" s="60"/>
-      <c r="E5" s="46"/>
+      <c r="E5" s="46" t="s">
+        <v>100</v>
+      </c>
       <c r="F5" s="35"/>
       <c r="G5" s="21"/>
     </row>
@@ -3170,8 +3211,12 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>99</v>
+      </c>
       <c r="F6" s="36"/>
       <c r="G6" s="13"/>
     </row>
@@ -3185,40 +3230,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18915" windowHeight="8445" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Sprint6" sheetId="9" r:id="rId7"/>
     <sheet name="Sprint7" sheetId="11" r:id="rId8"/>
     <sheet name="Sprint8" sheetId="13" r:id="rId9"/>
+    <sheet name="Sprint9" sheetId="15" r:id="rId10"/>
+    <sheet name="Sprint10" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="116">
   <si>
     <t>Adrian</t>
   </si>
@@ -291,9 +293,6 @@
     <t>Prueba de integridad (inicios)</t>
   </si>
   <si>
-    <t>Diseño de Modelo usando Hydraulics Toolbox</t>
-  </si>
-  <si>
     <t>Prueba de (1)</t>
   </si>
   <si>
@@ -303,31 +302,76 @@
     <t>Leandro estaba complicado por asuntos personales</t>
   </si>
   <si>
-    <t>Sprint #7 ( 17/09 al 16/10)</t>
-  </si>
-  <si>
     <t>Prueba Integral del Sistema</t>
   </si>
   <si>
-    <t>Implementación definitiva</t>
-  </si>
-  <si>
     <t>Prueba Delphi-Matlab</t>
   </si>
   <si>
-    <t>Agregado de filtros a reportes</t>
-  </si>
-  <si>
     <t>Finalizar módulo de estadísticas web</t>
   </si>
   <si>
-    <t>Prueba del módulo de estadísticas</t>
-  </si>
-  <si>
     <t>Documentación de Pruebas</t>
   </si>
   <si>
-    <t>Poster; PPT Congreso; Manual de Usuario HYDRO</t>
+    <t>Implementación definitiva Modulo de Simulacion</t>
+  </si>
+  <si>
+    <t>TP Anual 2: Impacto ambiental, costos, etc.</t>
+  </si>
+  <si>
+    <t>Diseño de Modelo usando Power System Toolbox</t>
+  </si>
+  <si>
+    <t>Prueba del módulo de contol y estadísticas</t>
+  </si>
+  <si>
+    <t>Sprint #8 ( 17/09 al 16/10)</t>
+  </si>
+  <si>
+    <t>Agregado de filtros a reportes y alertas; Corregir bug's en alertas</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Evaluar si existe Generador de Documentacion y de ser así aplicarlo</t>
+  </si>
+  <si>
+    <t>Sprint #9 ( 17/10 al 1/11)</t>
+  </si>
+  <si>
+    <t>Manual Arquitectura: Redactar para gente ajena al proyecto</t>
+  </si>
+  <si>
+    <t>Manual de usuario Web</t>
+  </si>
+  <si>
+    <t>Programación y Documentación: Buenas Prácticas Desarrollo Web</t>
+  </si>
+  <si>
+    <t>Afiche; PPT Congreso; Manual de Usuario HYDRO</t>
+  </si>
+  <si>
+    <t>Manual de Usuario Desktop; Gantts de Implementación y General</t>
+  </si>
+  <si>
+    <t>Revisión de informe de Implementación</t>
+  </si>
+  <si>
+    <t>Armado de Carpeta Final</t>
+  </si>
+  <si>
+    <t>Sprint #10 ( 1/11 al 14/11)</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Simulación de Presentación Final</t>
+  </si>
+  <si>
+    <t>Prueba de Integración: Programa Cental - Simulador</t>
   </si>
 </sst>
 </file>
@@ -392,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -868,11 +912,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1078,6 +1148,15 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,6 +1237,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,22 +1566,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1503,8 +1594,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1601,12 +1692,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1615,34 +1706,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1653,6 +1744,342 @@
     <mergeCell ref="D9:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
+      <c r="B2" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
+    </row>
+    <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D9:G14"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="3" width="48.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
+      <c r="B2" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57" t="str">
+        <f>B3</f>
+        <v>Armado de Carpeta Final</v>
+      </c>
+      <c r="C4" s="58" t="str">
+        <f>C3</f>
+        <v>Simulación de Presentación Final</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="59" t="str">
+        <f>B3</f>
+        <v>Armado de Carpeta Final</v>
+      </c>
+      <c r="C5" s="60" t="str">
+        <f>C3</f>
+        <v>Simulación de Presentación Final</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="53" t="str">
+        <f>B3</f>
+        <v>Armado de Carpeta Final</v>
+      </c>
+      <c r="C6" s="61" t="str">
+        <f>C3</f>
+        <v>Simulación de Presentación Final</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C9:E14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1685,22 +2112,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1713,8 +2140,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1813,42 +2240,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1891,22 +2318,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -1919,8 +2346,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2016,42 +2443,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2094,22 +2521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2122,8 +2549,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2235,42 +2662,42 @@
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2313,22 +2740,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2341,8 +2768,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2440,42 +2867,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2518,22 +2945,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2546,8 +2973,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2643,40 +3070,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2707,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2719,22 +3146,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2747,8 +3174,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2850,40 +3277,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2914,7 +3341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2926,22 +3353,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
@@ -2954,8 +3381,8 @@
       <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2988,25 +3415,27 @@
         <v>32</v>
       </c>
       <c r="C4" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="F4" s="34">
         <v>70</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="100">
+        <v>40817</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>32</v>
@@ -3017,7 +3446,9 @@
       <c r="E5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="35">
+        <v>100</v>
+      </c>
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3037,9 +3468,11 @@
         <v>85</v>
       </c>
       <c r="F6" s="36">
-        <v>55</v>
-      </c>
-      <c r="G6" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="G6" s="99">
+        <v>40821</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3051,42 +3484,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
+      <c r="D9" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3117,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,24 +3562,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="50" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>5</v>
@@ -3157,8 +3590,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3167,10 +3600,10 @@
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="17"/>
@@ -3182,10 +3615,10 @@
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="9"/>
@@ -3196,11 +3629,13 @@
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="60"/>
+        <v>108</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>96</v>
+      </c>
       <c r="E5" s="46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="21"/>
@@ -3209,10 +3644,12 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>99</v>
@@ -3230,40 +3667,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -329,9 +329,6 @@
     <t>Sprint #8 ( 17/09 al 16/10)</t>
   </si>
   <si>
-    <t>Agregado de filtros a reportes y alertas; Corregir bug's en alertas</t>
-  </si>
-  <si>
     <t>Documentación</t>
   </si>
   <si>
@@ -372,6 +369,21 @@
   </si>
   <si>
     <t>Prueba de Integración: Programa Cental - Simulador</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agregado de filtros a reportes y alertas; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Corregir bug's en alertas</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -381,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +405,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1157,6 +1176,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,12 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1566,22 +1585,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1594,8 +1613,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1692,12 +1711,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1706,34 +1725,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1764,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,24 +1795,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>5</v>
@@ -1804,19 +1823,19 @@
       <c r="E2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="33"/>
@@ -1827,12 +1846,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="9"/>
@@ -1842,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
@@ -1855,11 +1874,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="36"/>
@@ -1875,40 +1894,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1952,38 +1971,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="17"/>
@@ -2042,34 +2061,34 @@
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2112,22 +2131,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2159,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2240,42 +2259,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2318,22 +2337,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2346,8 +2365,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2443,42 +2462,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2521,22 +2540,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2549,8 +2568,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2662,42 +2681,42 @@
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2740,22 +2759,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2768,8 +2787,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2867,42 +2886,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2945,22 +2964,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2973,8 +2992,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3070,40 +3089,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3146,22 +3165,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -3174,8 +3193,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3277,40 +3296,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3353,22 +3372,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3400,8 @@
       <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3426,7 +3445,7 @@
       <c r="F4" s="34">
         <v>70</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="73">
         <v>40817</v>
       </c>
     </row>
@@ -3470,7 +3489,7 @@
       <c r="F6" s="36">
         <v>70</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="72">
         <v>40821</v>
       </c>
     </row>
@@ -3484,42 +3503,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3550,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,24 +3581,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>5</v>
@@ -3590,8 +3609,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3600,12 +3619,14 @@
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="33">
+        <v>90</v>
+      </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,7 +3641,9 @@
       <c r="E4" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="34">
+        <v>80</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,7 +3652,7 @@
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>96</v>
@@ -3637,7 +3660,9 @@
       <c r="E5" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="35">
+        <v>80</v>
+      </c>
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3645,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61" t="s">
@@ -3667,40 +3692,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="117">
   <si>
     <t>Adrian</t>
   </si>
@@ -371,18 +371,20 @@
     <t>Prueba de Integración: Programa Cental - Simulador</t>
   </si>
   <si>
+    <t>Para delphi, el generador de codigo es una versión beta open source que no funciona muy bien.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Agregado de filtros a reportes y alertas; </t>
+      <t>Agregado de filtros a reportes y alertas;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Corregir bug's en alertas</t>
+      <t xml:space="preserve"> Corregir bug's en alertas</t>
     </r>
   </si>
 </sst>
@@ -411,7 +413,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -961,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,6 +1269,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1842,9 @@
         <v>102</v>
       </c>
       <c r="E3" s="56"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="33">
+        <v>100</v>
+      </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,40 +1900,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="D9" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3569,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3627,7 @@
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>92</v>
@@ -3627,7 +3635,9 @@
       <c r="F3" s="33">
         <v>90</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="68">
+        <v>40839</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3644,7 +3654,9 @@
       <c r="F4" s="34">
         <v>80</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="73">
+        <v>40838</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -3663,7 +3675,9 @@
       <c r="F5" s="35">
         <v>80</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="103">
+        <v>40838</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -3679,7 +3693,9 @@
       <c r="E6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>100</v>
+      </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="18915" windowHeight="8385" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="10" r:id="rId1"/>
@@ -1183,6 +1183,9 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,9 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,22 +1589,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1715,12 +1715,12 @@
         <v>13</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -1729,34 +1729,34 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,22 +1799,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="69" t="s">
         <v>101</v>
       </c>
@@ -1827,8 +1827,8 @@
       <c r="E2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1856,10 +1856,12 @@
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="34">
+        <v>100</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,8 +1873,10 @@
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="35">
+        <v>100</v>
+      </c>
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1887,7 +1891,9 @@
         <v>102</v>
       </c>
       <c r="E6" s="44"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>100</v>
+      </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1900,42 +1906,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1967,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,28 +1985,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="69" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2069,34 +2075,34 @@
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2139,22 +2145,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2167,8 +2173,8 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2267,42 +2273,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2345,22 +2351,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2373,8 +2379,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2470,42 +2476,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2548,22 +2554,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2576,8 +2582,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2689,42 +2695,42 @@
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2767,22 +2773,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -2795,8 +2801,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2894,42 +2900,42 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2972,22 +2978,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -3000,8 +3006,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3097,40 +3103,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3173,22 +3179,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
@@ -3201,8 +3207,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3304,40 +3310,40 @@
       <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3380,22 +3386,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
@@ -3408,8 +3414,8 @@
       <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3511,42 +3517,42 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3589,22 +3595,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74"/>
-      <c r="B1" s="76" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="50" t="s">
         <v>101</v>
       </c>
@@ -3617,8 +3623,8 @@
       <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3675,7 +3681,7 @@
       <c r="F5" s="35">
         <v>80</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="74">
         <v>40838</v>
       </c>
     </row>
@@ -3708,40 +3714,40 @@
       <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Informes/TP Anual 2/Sprints.xlsx
+++ b/Informes/TP Anual 2/Sprints.xlsx
@@ -365,9 +365,6 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>Simulación de Presentación Final</t>
-  </si>
-  <si>
     <t>Prueba de Integración: Programa Cental - Simulador</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
       </rPr>
       <t xml:space="preserve"> Corregir bug's en alertas</t>
     </r>
+  </si>
+  <si>
+    <t>Puesta a punto de las PC's para la Exposición y Simulación de Presentación Final</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="34">
         <v>100</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="85"/>
       <c r="F9" s="85"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2016,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="17"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C4" s="58" t="str">
         <f>C3</f>
-        <v>Simulación de Presentación Final</v>
+        <v>Puesta a punto de las PC's para la Exposición y Simulación de Presentación Final</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="9"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C5" s="60" t="str">
         <f>C3</f>
-        <v>Simulación de Presentación Final</v>
+        <v>Puesta a punto de las PC's para la Exposición y Simulación de Presentación Final</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="21"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C6" s="61" t="str">
         <f>C3</f>
-        <v>Simulación de Presentación Final</v>
+        <v>Puesta a punto de las PC's para la Exposición y Simulación de Presentación Final</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="13"/>
@@ -3633,7 +3633,7 @@
       <c r="B3" s="54"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>92</v>
